--- a/data/MatedFemalesE2aD1.xlsx
+++ b/data/MatedFemalesE2aD1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/katherinemillar/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9BC3887B-51F6-2247-9A58-6D1A51AC9BFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8BA7554-6A67-0E4A-8607-9D54091AA2DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="1000" windowWidth="27640" windowHeight="15800" xr2:uid="{A6385F37-914F-5246-B4AE-C7B8149100C3}"/>
   </bookViews>
